--- a/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5DAACA-B090-4EBE-908D-FD263EBDD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C63B2D1-3EA6-4D2E-B816-B538CB52C85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="444" windowWidth="38388" windowHeight="11160" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="39552" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Action</t>
   </si>
@@ -118,6 +118,75 @@
   </si>
   <si>
     <t>Check defaults main dialog</t>
+  </si>
+  <si>
+    <t>id="</t>
+  </si>
+  <si>
+    <t>&lt;NOTEXISTS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ENABLED&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EMPTY&gt;</t>
+  </si>
+  <si>
+    <t>id=tricentis_logo</t>
+  </si>
+  <si>
+    <t>id=visitsupport</t>
+  </si>
+  <si>
+    <t>id=search_form</t>
+  </si>
+  <si>
+    <t>id=search_button</t>
+  </si>
+  <si>
+    <t>id=nav_automobile</t>
+  </si>
+  <si>
+    <t>id=nav_truck</t>
+  </si>
+  <si>
+    <t>id=nav_motorcycle</t>
+  </si>
+  <si>
+    <t>id=nav_camper</t>
+  </si>
+  <si>
+    <t>id=downloadtrial</t>
+  </si>
+  <si>
+    <t>id=tricentis_about</t>
+  </si>
+  <si>
+    <t>id=tricentis_products</t>
+  </si>
+  <si>
+    <t>id=tricentis_events</t>
+  </si>
+  <si>
+    <t>id=tricentis_resources</t>
+  </si>
+  <si>
+    <t>id=tricentis_services</t>
+  </si>
+  <si>
+    <t>id=nav_facebook</t>
+  </si>
+  <si>
+    <t>id=nav_twitter</t>
+  </si>
+  <si>
+    <t>Click Truck link</t>
+  </si>
+  <si>
+    <t>Click Motorcycle link</t>
+  </si>
+  <si>
+    <t>Click Camper link</t>
   </si>
 </sst>
 </file>
@@ -141,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,10 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -193,15 +269,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1358397</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38604</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1038357</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>15744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,7 +300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1424940"/>
+          <a:off x="22860" y="1402080"/>
           <a:ext cx="19036797" cy="9220704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -534,21 +610,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="20" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -558,6 +647,60 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
       <c r="U1" t="s">
         <v>0</v>
       </c>
@@ -569,6 +712,24 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
       <c r="U2" t="s">
         <v>0</v>
       </c>
@@ -645,6 +806,27 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
       <c r="U4" t="s">
         <v>3</v>
       </c>
@@ -660,6 +842,48 @@
         <v>29</v>
       </c>
       <c r="U5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C63B2D1-3EA6-4D2E-B816-B538CB52C85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E98D3F-4F98-49C1-9F1A-8773118C56B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="39552" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Action</t>
   </si>
@@ -144,9 +144,6 @@
     <t>id=search_button</t>
   </si>
   <si>
-    <t>id=nav_automobile</t>
-  </si>
-  <si>
     <t>id=nav_truck</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>Click Camper link</t>
+  </si>
+  <si>
+    <t>//*[@class="main-navigation"]//*[@id="nav_automobile"]</t>
+  </si>
+  <si>
+    <t>//*[@class="mobile-navigation"]//*[@id="nav_automobile"]</t>
   </si>
 </sst>
 </file>
@@ -274,8 +277,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1038357</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123957</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>15744</xdr:rowOff>
     </xdr:to>
@@ -613,7 +616,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +627,7 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
@@ -660,46 +663,46 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
       <c r="T1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
         <v>0</v>
@@ -716,7 +719,9 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -847,7 +852,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -861,7 +866,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -875,7 +880,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>

--- a/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E98D3F-4F98-49C1-9F1A-8773118C56B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB458C0-B4AD-4050-9922-5F9A1DB90456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3456" yWindow="960" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -144,15 +144,6 @@
     <t>id=search_button</t>
   </si>
   <si>
-    <t>id=nav_truck</t>
-  </si>
-  <si>
-    <t>id=nav_motorcycle</t>
-  </si>
-  <si>
-    <t>id=nav_camper</t>
-  </si>
-  <si>
     <t>id=downloadtrial</t>
   </si>
   <si>
@@ -190,6 +181,15 @@
   </si>
   <si>
     <t>//*[@class="mobile-navigation"]//*[@id="nav_automobile"]</t>
+  </si>
+  <si>
+    <t>//*[@class="main-navigation"]//*[@id="nav_truck"]</t>
+  </si>
+  <si>
+    <t>//*[@class="main-navigation"]//*[@id="motorcycle"]</t>
+  </si>
+  <si>
+    <t>//*[@class="main-navigation"]//*[@id="camper"]</t>
   </si>
 </sst>
 </file>
@@ -277,8 +277,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123957</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>512577</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>15744</xdr:rowOff>
     </xdr:to>
@@ -616,7 +616,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="54.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -663,46 +663,46 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
         <v>0</v>
@@ -720,7 +720,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>

--- a/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB458C0-B4AD-4050-9922-5F9A1DB90456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03275A94-3242-4A5F-AED4-CF8ED9E0A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="960" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3492" yWindow="1080" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,10 @@
     <t>//*[@class="main-navigation"]//*[@id="nav_truck"]</t>
   </si>
   <si>
-    <t>//*[@class="main-navigation"]//*[@id="motorcycle"]</t>
-  </si>
-  <si>
-    <t>//*[@class="main-navigation"]//*[@id="camper"]</t>
+    <t>//*[@class="main-navigation"]//*[@id="nav_motorcycle"]</t>
+  </si>
+  <si>
+    <t>//*[@class="main-navigation"]//*[@id="nav_camper"]</t>
   </si>
 </sst>
 </file>
@@ -272,15 +272,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>512577</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>15744</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1305057</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -303,7 +303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22860" y="1402080"/>
+          <a:off x="0" y="2049780"/>
           <a:ext cx="19036797" cy="9220704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -616,7 +616,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,8 +629,8 @@
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="54.44140625" customWidth="1"/>
     <col min="8" max="8" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>

--- a/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03275A94-3242-4A5F-AED4-CF8ED9E0A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6ABE9C-E9AA-4E06-8B8C-B3817C1D0E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="1080" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3132" yWindow="3096" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
